--- a/PFS_Portal.xlsx
+++ b/PFS_Portal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHROME\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023F86AD-D3DF-4545-89D2-1023B8C8E3C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEBC1A4-CA7C-4C6B-A57D-4E810F19942B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student_Login" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
-    <t>Happy@123</t>
-  </si>
-  <si>
     <t>BaseUrl</t>
   </si>
   <si>
@@ -40,21 +37,12 @@
     <t>Password</t>
   </si>
   <si>
-    <t>https://dev-portal.ken42.com</t>
-  </si>
-  <si>
     <t>studen@ken42.onmicrosft.com</t>
   </si>
   <si>
     <t>Happy23</t>
   </si>
   <si>
-    <t>student1@ken42.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>https://dev-portal.ken42.com/</t>
-  </si>
-  <si>
     <t>Faculty@gmail.com</t>
   </si>
   <si>
@@ -64,7 +52,19 @@
     <t>faculty@ken42.onmicrosoft.com</t>
   </si>
   <si>
-    <t>BAdv1V0xg7Pfe54qZxGuJA</t>
+    <t>student2@ken42.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>https://demo-portal.ken42.com/</t>
+  </si>
+  <si>
+    <t>BAdv1V0xg7Pfe54qZxGAJA</t>
+  </si>
+  <si>
+    <t>Happy@123456</t>
+  </si>
+  <si>
+    <t>https://demo-portal.ken42.com</t>
   </si>
 </sst>
 </file>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -417,33 +417,33 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4D345D-7118-441C-AFBB-181BE5966702}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -479,33 +479,33 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
